--- a/Dataset1.xlsx
+++ b/Dataset1.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$C:$C</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Лист1!$E$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>DATA</t>
   </si>
@@ -30,32 +34,67 @@
     <t>PLACE</t>
   </si>
   <si>
-    <t>NSU</t>
-  </si>
-  <si>
     <t>0207</t>
   </si>
   <si>
     <t>2221</t>
   </si>
   <si>
-    <t>Street</t>
-  </si>
-  <si>
     <t>412б</t>
   </si>
   <si>
-    <t>417ГК</t>
+    <t>ГК</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>4115</t>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>3212</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>ИВМ</t>
+  </si>
+  <si>
+    <t>НГУ</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2265</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +131,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,18 +152,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,149 +467,2159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45173</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="str">
+        <f t="array" ref="F2:Y2">TRANSPOSE(E3:E22)</f>
+        <v>НГУ</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2128</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2265</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <v>0207</v>
+      </c>
+      <c r="J2" s="9" t="str">
+        <v>2221</v>
+      </c>
+      <c r="K2" s="9" t="str">
+        <v>412б</v>
+      </c>
+      <c r="L2" s="9" t="str">
+        <v>ГК</v>
+      </c>
+      <c r="M2" s="9" t="str">
+        <v>417</v>
+      </c>
+      <c r="N2" s="9" t="str">
+        <v>402</v>
+      </c>
+      <c r="O2" s="9">
+        <v>4218</v>
+      </c>
+      <c r="P2" s="9" t="str">
+        <v>4115</v>
+      </c>
+      <c r="Q2" s="9" t="str">
+        <v>1281</v>
+      </c>
+      <c r="R2" s="9" t="str">
+        <v>3212</v>
+      </c>
+      <c r="S2" s="9" t="str">
+        <v>4210</v>
+      </c>
+      <c r="T2" s="9" t="str">
+        <v>1274</v>
+      </c>
+      <c r="U2" s="9" t="str">
+        <v>ИВМ</v>
+      </c>
+      <c r="V2" s="9" t="str">
+        <v>225</v>
+      </c>
+      <c r="W2" s="9" t="str">
+        <v>224</v>
+      </c>
+      <c r="X2" s="9" t="str">
+        <v>2128</v>
+      </c>
+      <c r="Y2" s="9" t="str">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2128</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <f>COUNTIFS($C$2:$C$37,F$2,$C$3:$C$38,D$3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f>COUNTIFS($C$2:$C$37,G$2,$C$3:$C$38,$E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:Y21" si="0">COUNTIFS($C$2:$C$37,H$2,$C$3:$C$38,$E3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2265</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2128</v>
+      </c>
+      <c r="F4" s="11">
+        <f>COUNTIFS($C$2:$C$37,$E4,$C$3:$C$38,F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f>COUNTIFS($C$2:$C$37,G$2,$C$3:$C$38,E$3)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2265</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" ref="F5:U22" si="1">COUNTIFS($C$2:$C$37,$E5,$C$3:$C$38,F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f>COUNTIFS($C$2:$C$37,$E5,$C$3:$C$38,G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <f>COUNTIFS($C$2:$C$37,H$2,$C$3:$C$38,F$3)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <f>COUNTIFS($C$2:$C$37,$E6,$C$3:$C$38,F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:H6" si="2">COUNTIFS($C$2:$C$37,$E6,$C$3:$C$38,G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f>COUNTIFS($C$2:$C$37,I$2,$C$3:$C$38,G$3)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <f>COUNTIFS($C$2:$C$37,$E7,$C$3:$C$38,I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <f>COUNTIFS($C$2:$C$37,J$2,$C$3:$C$38,H$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f>COUNTIFS($C$2:$C$37,K$2,$C$3:$C$38,I$3)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11">
+        <f>COUNTIFS($C$2:$C$37,$E9,$C$3:$C$38,F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f>COUNTIFS($C$2:$C$37,L$2,$C$3:$C$38,J$3)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f>COUNTIFS($C$2:$C$37,M$2,$C$3:$C$38,K$3)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <f>COUNTIFS($C$2:$C$37,N$2,$C$3:$C$38,L$3)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.75416666666666676</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4218</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4218</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <f>COUNTIFS($C$2:$C$37,O$2,$C$3:$C$38,M$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <f>COUNTIFS($C$2:$C$37,P$2,$C$3:$C$38,N$3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <f>COUNTIFS($C$2:$C$37,$E14,$C$3:$C$38,P$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>COUNTIFS($C$2:$C$37,Q$2,$C$3:$C$38,O$3)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <f>COUNTIFS($C$2:$C$37,R$2,$C$3:$C$38,P$3)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <f>COUNTIFS($C$2:$C$37,S$2,$C$3:$C$38,Q$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <f>COUNTIFS($C$2:$C$37,T$2,$C$3:$C$38,R$3)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
+        <f>COUNTIFS($C$2:$C$37,U$2,$C$3:$C$38,S$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <f>COUNTIFS($C$2:$C$37,V$2,$C$3:$C$38,T$3)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" ref="V20:X22" si="3">COUNTIFS($C$2:$C$37,$E20,$C$3:$C$38,V$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="11">
+        <f>COUNTIFS($C$2:$C$37,W$2,$C$3:$C$38,U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <f>COUNTIFS($C$2:$C$37,X$2,$C$3:$C$38,V$3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="11">
+        <f>COUNTIFS($C$2:$C$37,Y$2,$C$3:$C$38,W$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B26" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.44930555555555557</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.74652777777777779</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>45174</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>45174</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>45174</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.52916666666666667</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
